--- a/Project Management/team_register.xlsx
+++ b/Project Management/team_register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Block_2\Project_Block_II\Documents\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225506\OneDrive - TU Eindhoven\Documents\asd-engd-project-2022-extrinsic-sensor-calibration\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B5E90D-1CD0-4AFF-A031-0F4432204C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3A955-E5E5-4BF8-B327-99D0A0E32A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA9D7D32-B595-488C-A3BE-EF5BABB45F7D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{BA9D7D32-B595-488C-A3BE-EF5BABB45F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Register" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,12 +258,181 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -286,182 +453,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -478,17 +469,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBC7DF7C-85BF-4CEB-9F03-F31E89884DAE}" name="TBL_Stakeholders" displayName="TBL_Stakeholders" ref="A1:J8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBC7DF7C-85BF-4CEB-9F03-F31E89884DAE}" name="TBL_Stakeholders" displayName="TBL_Stakeholders" ref="A1:J8" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8CDC816A-3578-44E3-9F24-DB1EEADA5951}" name="ID" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{2D662754-9CD0-4108-83C4-67303715EF34}" name="Initials" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{03D85915-CA38-437A-8CDC-E9864A695F7E}" name="First Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{85AE1549-BBD9-41E9-881F-50F43C832049}" name="Last Name" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{029A65E1-43FA-4D7B-B057-6308DF7F3AAB}" name="Degrees" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{2CA14DF3-8C83-4FFC-96E7-109A75A1F109}" name="E-mail" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8CDC816A-3578-44E3-9F24-DB1EEADA5951}" name="ID" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{2D662754-9CD0-4108-83C4-67303715EF34}" name="Initials" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{03D85915-CA38-437A-8CDC-E9864A695F7E}" name="First Name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{85AE1549-BBD9-41E9-881F-50F43C832049}" name="Last Name" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{029A65E1-43FA-4D7B-B057-6308DF7F3AAB}" name="Degrees" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{2CA14DF3-8C83-4FFC-96E7-109A75A1F109}" name="E-mail" dataDxfId="4"/>
     <tableColumn id="20" xr3:uid="{2344792B-4BBF-4633-B319-7FF5CFEF1A88}" name="Organisation" dataDxfId="3"/>
     <tableColumn id="21" xr3:uid="{6D9F9E71-2470-49AE-B752-B59AB168D72B}" name="Department" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{97892E41-5279-4879-AAC4-F12161B79ECF}" name="Position" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{97892E41-5279-4879-AAC4-F12161B79ECF}" name="Position" dataDxfId="0"/>
     <tableColumn id="24" xr3:uid="{A4B2413F-4107-4FFC-9D44-72CE424CCD22}" name="Role" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -795,276 +786,276 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
